--- a/topics/2024.Summer.Assignment Subjects_SWR302_SWP391_FER201M_SWT_PRN.xlsx
+++ b/topics/2024.Summer.Assignment Subjects_SWR302_SWP391_FER201M_SWT_PRN.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giao.lang\Desktop\_cloud.truong.lang\software-development-project\topics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10332"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -36,18 +44,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Diamond Shop System</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  Phần mềm quản lý cửa hàng kim cương</t>
@@ -64,18 +72,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Phần mềm quản lý việc bán kim cương trực tuyến của công ty kinh doanh kim cương</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  - Trang chủ giới thiệu cửa hàng, sản phẩm về kim cương, bộ sưu tập, bảng giá kim cương, kiến thức trang sức, kiến thức kim cương, hướng dẫn chọn ni, câu hỏi thường gặp, …
@@ -84,53 +92,53 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">               &lt;&lt; Khách hàng chọn sản phẩm và đặt hàng --&gt; NV bán hàng tiếp nhận đơn hàng và hướng dẫn đo ni cho khách hàng --&gt; Khách hàng xác nhận ni và thực hiện thanh toán --&gt; NV bán hàng xuất sản phẩm và kèm theo phiếu bảo hành và giấy chứng nhận kim cương để bàn giao --&gt; NV giao hàng gửi sản phẩm đến khách hàng &gt;&gt;
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve"> - Quản lý phiếu bảo hành sản phẩm, giấy chứng nhận kim cương theo tiêu chuẩn </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>4C</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve"> của </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>GIA</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>.
  - Quản lý chương trình khuyến mãi, tích lũy điểm.
@@ -138,69 +146,69 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>C</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>arat weight), màu sắc (</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>C</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>olor), độ tinh khiết (</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>C</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>larity), cắt mài (</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>C</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">ut); khai báo bảng giá vỏ kim cương.
  - Quản lý sản phẩm kim cương bao gồm: vỏ kim cương, viên kim cương chính, các viên kim cương phụ, ...
@@ -208,18 +216,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">                &lt;&lt; Giá bán = giá vốn sản phẩm * tỉ lệ áp giá, Giá vốn sản phẩm = tiền kim cương + vỏ kim cương + tiền công&gt;&gt;</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  - Dashboard thống kê.</t>
@@ -228,18 +236,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Diamond Assessment System</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  Phần mềm quản lý giám định kim cương</t>
@@ -256,18 +264,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Phần mềm quản lý thực hiện giám định kim cương theo yêu cầu của khách hàng cho công ty</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  - Trang chủ giới thiệu công ty giám định, dịch vụ thực hiện, kiến thức kim cương, tra cứu, blog chia sẽ, …
@@ -277,10 +285,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">               &lt;&lt; Khách hàng gửi phiếu yêu cầu giám định --&gt; NV tư vấn liên hệ khách hàng --&gt; NV tư vấn nhận mẫu giám định và thực hiện biên nhận giám định --&gt; NV giám định thực hiện giám định và ghi nhận kết quả --&gt; NV tư vấn gửi trả kết quả và mẫu giám định cho khách hàng &gt;&gt;
                &lt;&lt; Chi tiết bước NV giám định thực hiện giám định và ghi nhận kết quả:
@@ -289,9 +297,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve"> - Chức năng quản lý giấy giám định kim cương bao gồm các thông tin chính: số giám định, ngày cấp, loại nguồn gốc (diamond origin), dạng mài cắt (Shape &amp; Cut), kích thước (Measurements), trọng lượng (Carat weight), màu sắc (Color), độ tinh khiết (Clarity), cắt mài (Cut), tỉ lệ cắt mài (Proportions), mài bóng (Polish), đối xứng (Symmetry), phát quang (Flourescence)
  - Chức năng in giấy giám định kim cương theo mẫu của công ty.
@@ -304,18 +312,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Diamond Valuation System</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  Phần mềm quản lý định giá kim cương</t>
@@ -332,18 +340,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Phần mềm quản lý yêu cầu của khách hàng thực hiện định giá kim cương cho công ty</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  - Trang chủ giới thiệu công ty, dịch vụ thực hiện, kiến thức kim cương, tra cứu, định giá, blog chia sẽ, …
@@ -354,27 +362,27 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">               </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">&lt;&lt; Khách hàng gửi phiếu yêu cầu định giá --&gt; NV tư vấn liên hệ khách hàng --&gt; NV tư vấn nhận mẫu định giá và thực hiện biên nhận định giá --&gt; NV định giá thực hiện định giá và ghi nhận kết quả --&gt; NV tư vấn gửi trả kết quả và mẫu định giá cho khách hàng &gt;&gt;
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve"> - Chức năng in giấy định giá kim cương theo mẫu của công ty.
  - Chức năng lập biên bản niêm phong để xử lý khi khách hàng không đến nhận kết quả và mẫu định giá. Chức năng làm giấy cam kết để nhận mẫu định giá khi khách hàng làm mất biên nhận định giá. Các chức năng này đều phải có sự phê duyệt của người quản lý.
@@ -387,18 +395,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Jewelry Sales System At The Store</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  Phần mềm bán hàng trang sức tại cửa hàng</t>
@@ -412,18 +420,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Phần mềm quản lý bán hàng trang sức cho công ty kinh doanh trang sức tại 01 cửa hàng có nhiều quầy hàng</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  - Quản lý tạo lập đơn hàng bán tại quầy của khách và in hoá đơn bán hàng. Các mặt hàng được nhập bằng quét barcode hoặc nhập trực tiếp mã hàng vào chương trình. Chương trình hỗ trợ in phiếu bảo hành với các mặt hàng trang sức.
@@ -431,48 +439,48 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">               &lt;&lt; Giá bán = giá vốn sản phẩm * tỉ lệ áp giá, Giá vốn sản phẩm = [giá vàng thời điểm * trọng lượng sản phẩm] + tiền công + tiền đá &gt;&gt;
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve"> - Quản lý chương trình khuyến mãi của công ty khi bán hàng. Khách còn được hưởng thêm chính sách ưu đãi dành riêng cho khách hàng, đối với trường hợp này phải được xác nhận của quản lý thì nhân viên bán hàng mới ghi nhận chiết khấu cho khách hàng.
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">               &lt;&lt; Chiếu khấu hoá đơn = chiếu khấu trong kỳ khuyến mãi công ty (nếu có) + chiếu khấu do chính sách ưu đãi cho khách hàng ( nếu có) &gt;&gt;
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve"> - Quản lý mua lại hàng của khách hàng tại quầy và in hóa đơn mua hàng. Đối với mua lại hàng đã bán, công ty sẽ có chính sách ưu đãi giá. Chương trình hỗ trợ tìm lại hoá đơn bán hàng của khách hàng.
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">               &lt;&lt; Đối với nữ trang + đá thường: quầy hàng chỉ mua lại phần vàng thực tế
                      Đối với đá quý thì cửa hàng mua lại với giá được khai báo trong hệ thống (VD: 70% giá đã bán)
@@ -480,9 +488,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  - Chức năng hiển thị bảng giá vàng trên các thiết bị ti vi tại cửa hàng.
@@ -496,18 +504,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Jewelry Production Order System</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  Phần mềm quản lý đặt gia công trang sức</t>
@@ -524,18 +532,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Phần mềm quản lý việc đặt gia công trang sức của khách hàng cho công ty gia công trang sức</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  - Trang chủ giới thiệu công ty, bộ sưu tập trang sức, mẫu thiết kế, blog chia sẽ, …
@@ -545,38 +553,38 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">                &lt;&lt; Khách hàng gửi yêu cầu --&gt; NV kinh doanh tiếp nhận và trao đổi với khách --&gt; NV kinh doanh gửi yêu cầu phê duyệt báo giá --&gt; Người quản lý phê duyệt --&gt; NV kinh doanh gửi báo giá đã phê duyệt--&gt; khách hàng chấp nhận báo giá và tạo đơn hàng gia công --&gt; NV thiết kế gửi bản thiết kế 3D cho khách --&gt; khách hàng phê duyệt bản thiết kế 3D --&gt; NV gia công thực hiện gia công trang sức --&gt; NV kinh doanh bàn giao trang sức đã gia công và giấy bảo hành cho khách hàng &gt;&gt;
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve"> - Cập nhật chi phí của đơn hàng gia công theo định mức để báo giá và thực tế gia công để tính giá vốn báo giá và thực hiện
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">                &lt;&lt; Giá vốn sản phẩm = [giá vàng thời điểm * trọng lượng sản phẩm] + tiền công + tiền đá &gt;&gt;
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve"> - Khai báo chính sách thanh toán, hủy đơn hàng gia công trang sức.
  - khai báo giá vàng và giá đá áp dụng của công ty.
@@ -587,18 +595,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Jewelry Auction System</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  Phần mềm quản lý đấu giá trang sức</t>
@@ -614,18 +622,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Phần mềm quản lý đấu giá trang sức trực tuyến của công ty đấu giá</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  - Trang chủ giới thiệu công ty đấu giá, trang sức đấu giá, chính sách qui định, blog chia sẽ, …
@@ -635,38 +643,38 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">               &lt;&lt; Người bán gửi yêu cầu đấu giá trang sức --&gt; Nhân viên gửi định giá sơ bộ trang sức đến người bán và yêu cầu gửi trang sức đến công ty--&gt; Nhân viên xác nhận đã nhận trang sức --&gt; Nhân viên gửi định giá cuối cùng cho quản lý phê duyệt --&gt; Người quản lý phê duyệt định giá cuối cùng --&gt; Nhân viên gửi định giá cuối cùng cho người bán --&gt; Người bán xác nhận chấp nhận đấu giá --&gt; Người quản lý chọn phiên đấu giá cho trang sức &gt;&gt;
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve"> - Quản lý quá trình thực hiện đấu giá trang sức của khách mua.
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">               &lt;&lt; Khách mua đăng ký tham giá đấu giá --&gt; Khách mua đặt giá trước phiên đấu giá được mở --&gt; Hệ thống sẽ chọn ra giá đặt cao nhất để bắt đầu phiên đấu giá được mở--&gt; Khách mua thực hiện đấu giá --&gt; Hệ thống thông báo kết quả thắng hoặc thất bại đấu giá cho khách mua khi kết thúc phiên--&gt; Khách hàng thực hiện thanh toán --&gt; Nhân viên bàn giao trang sức cho khách mua --&gt; Hệ thống chuyển tiền cho bên bán &gt;&gt;
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve"> - Quản lý phiên đấu giá bao gồm: tạo phiên, chọn trang sức đăng ký vào phiên, phân công nhân viên đấu giá, mở phiên, đóng phiên, dừng phiên, lịch sử giao dịch phiên, ...
  - Quản lý trang sức tham gia đấu giá.
@@ -677,20 +685,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">STEM for Highschool
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>Cổng thông tin STEM cho trường THPT</t>
     </r>
@@ -701,20 +710,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Green Care
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>Phần mềm dịch vụ chăm sóc cây kiểng tại nhà</t>
     </r>
@@ -723,36 +733,62 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, sans-serif"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, sans-serif"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri, sans-serif"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri, sans-serif"/>
     </font>
   </fonts>
   <fills count="3">
@@ -760,7 +796,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -770,20 +806,12 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -792,90 +820,96 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1065,30 +1099,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.75"/>
-    <col customWidth="1" min="2" max="2" width="24.0"/>
-    <col customWidth="1" min="5" max="5" width="14.0"/>
-    <col customWidth="1" min="6" max="6" width="91.63"/>
-    <col customWidth="1" min="7" max="7" width="28.5"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="91.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,9 +1148,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="252">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
@@ -1128,9 +1165,9 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="349.2">
       <c r="A3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>10</v>
@@ -1145,9 +1182,9 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
@@ -1162,9 +1199,9 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="349.8">
       <c r="A5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>16</v>
@@ -1179,9 +1216,9 @@
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="280.8">
       <c r="A6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>19</v>
@@ -1196,9 +1233,9 @@
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>22</v>
@@ -1213,9 +1250,9 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="43.2">
       <c r="A8" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -1228,9 +1265,9 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="43.2">
       <c r="A9" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>27</v>
@@ -1241,7 +1278,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="16"/>
       <c r="C10" s="6"/>
@@ -1250,7 +1287,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="16"/>
       <c r="C11" s="6"/>
@@ -1259,7 +1296,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
@@ -1269,6 +1306,6 @@
       <c r="G12" s="18"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>